--- a/_project_docs/SSE19_RD_CD.xlsx
+++ b/_project_docs/SSE19_RD_CD.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\project_docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB01A39-5B10-4CB7-96EF-39E3C9C15034}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FE9646-7B94-4A13-B6C6-18E461D97761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35520" yWindow="5010" windowWidth="18060" windowHeight="9165" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4050" yWindow="1350" windowWidth="20820" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code Design" sheetId="1" r:id="rId1"/>
-    <sheet name="Code Design (google)" sheetId="2" r:id="rId2"/>
+    <sheet name="Code Design (data)" sheetId="3" r:id="rId2"/>
+    <sheet name="Code Design (dic)" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Code Design'!$A$4:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Code Design (google)'!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Code Design (data)'!$A$4:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Code Design (dic)'!$A$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="165">
   <si>
     <t>No</t>
   </si>
@@ -73,27 +75,12 @@
     <t>動いている</t>
   </si>
   <si>
-    <t>body_status</t>
-  </si>
-  <si>
-    <t>on</t>
-  </si>
-  <si>
-    <t>off</t>
-  </si>
-  <si>
     <t>PC電源オン</t>
   </si>
   <si>
     <t>PC電源オフ</t>
   </si>
   <si>
-    <t>at_desk</t>
-  </si>
-  <si>
-    <t>away</t>
-  </si>
-  <si>
     <t>在席中</t>
   </si>
   <si>
@@ -103,12 +90,6 @@
     <t>pc_operation</t>
   </si>
   <si>
-    <t>PC操作中</t>
-  </si>
-  <si>
-    <t>PC未操作</t>
-  </si>
-  <si>
     <t>pc_power</t>
   </si>
   <si>
@@ -118,30 +99,15 @@
     <t>move</t>
   </si>
   <si>
-    <t>移動中（トランスポーテーション）</t>
-  </si>
-  <si>
-    <t>near</t>
-  </si>
-  <si>
     <t>other</t>
   </si>
   <si>
     <t>その他</t>
   </si>
   <si>
-    <t>at_living</t>
-  </si>
-  <si>
     <t>sleep</t>
   </si>
   <si>
-    <t>寝ている</t>
-  </si>
-  <si>
-    <t>移動手段で移動中</t>
-  </si>
-  <si>
     <t>transport</t>
   </si>
   <si>
@@ -169,28 +135,427 @@
     <t>視聴している</t>
   </si>
   <si>
-    <t>TVや音楽などを視聴している</t>
-  </si>
-  <si>
-    <t>google timeline (gpsより取得）</t>
-  </si>
-  <si>
-    <t>gooogle fit（mi band 3より取得）</t>
+    <t>PC_ON</t>
+  </si>
+  <si>
+    <t>PC_OFF</t>
+  </si>
+  <si>
+    <t>OPERATING</t>
+  </si>
+  <si>
+    <t>NO_OPERATING</t>
+  </si>
+  <si>
+    <t>BROWSING</t>
+  </si>
+  <si>
+    <t>操作中</t>
+  </si>
+  <si>
+    <t>閲覧中</t>
+  </si>
+  <si>
+    <t>ZAPPING</t>
+  </si>
+  <si>
+    <t>未操作</t>
+  </si>
+  <si>
+    <t>Window切替中</t>
+  </si>
+  <si>
+    <t>@desk</t>
+  </si>
+  <si>
+    <t>@restroom</t>
+  </si>
+  <si>
+    <t>near_desk</t>
+  </si>
+  <si>
+    <t>away_from_desk</t>
+  </si>
+  <si>
+    <t>near_restroom</t>
+  </si>
+  <si>
+    <t>away_from_restroom</t>
+  </si>
+  <si>
+    <t>work</t>
+  </si>
+  <si>
+    <t>event_category</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>ride</t>
+  </si>
+  <si>
+    <t>とどまっている（カフェ、など特定の場所に）</t>
+  </si>
+  <si>
+    <t>移動手段により移動中</t>
+  </si>
+  <si>
+    <t>speak</t>
+  </si>
+  <si>
+    <t>喋っている</t>
+  </si>
+  <si>
+    <t>電話などでしゃべっている</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>就寝</t>
+  </si>
+  <si>
+    <t>仕事</t>
+  </si>
+  <si>
+    <t>歩行</t>
+  </si>
+  <si>
+    <t>移動（自転車にて移動）</t>
+  </si>
+  <si>
+    <t>移動（トランスポーテーション）</t>
+  </si>
+  <si>
+    <t>TV、音楽などを視聴している</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>読書</t>
+  </si>
+  <si>
+    <t>gps</t>
+  </si>
+  <si>
+    <t>devise_category</t>
+  </si>
+  <si>
+    <t>gps (smartphone)</t>
+  </si>
+  <si>
+    <t>motion_sensor</t>
+  </si>
+  <si>
+    <t>人感センサー</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>meme</t>
+  </si>
+  <si>
+    <t>JINS MEME メガネ型センサ</t>
+  </si>
+  <si>
+    <t>miband</t>
+  </si>
+  <si>
+    <t>Mi Band3 リストバンド型センサ</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>cafe</t>
+  </si>
+  <si>
+    <t>自宅</t>
+  </si>
+  <si>
+    <t>会社</t>
+  </si>
+  <si>
+    <t>歩行中</t>
+  </si>
+  <si>
+    <t>Cafe滞在中</t>
+  </si>
+  <si>
+    <t>local_location</t>
+  </si>
+  <si>
+    <t>human_state</t>
+  </si>
+  <si>
+    <t>device_state</t>
+  </si>
+  <si>
+    <t>devise_state</t>
+  </si>
+  <si>
+    <t>device_operation</t>
+  </si>
+  <si>
+    <t>motion_sensing</t>
+  </si>
+  <si>
+    <t>timeline</t>
+  </si>
+  <si>
+    <t>global_location</t>
+  </si>
+  <si>
+    <t>休憩中</t>
+  </si>
+  <si>
+    <t>自宅にいて、離席中で、休憩中でない</t>
+  </si>
+  <si>
+    <t>gps_sensing</t>
+  </si>
+  <si>
+    <t>ristband_sensing</t>
+  </si>
+  <si>
+    <t>step</t>
+  </si>
+  <si>
+    <t>生活レベルで移動</t>
+  </si>
+  <si>
+    <t>awake</t>
+  </si>
+  <si>
+    <t>deep</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>起きている</t>
+  </si>
+  <si>
+    <t>深い眠り</t>
+  </si>
+  <si>
+    <t>浅い眠り</t>
+  </si>
+  <si>
+    <t>"Shop Category"</t>
+  </si>
+  <si>
+    <t>Googleで付与されるカテゴリ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ''(未設定）</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>走行</t>
+  </si>
+  <si>
+    <t>とどまっている（休憩場所）</t>
+  </si>
+  <si>
+    <t>stand</t>
+  </si>
+  <si>
+    <t>1分で60歩以内</t>
+  </si>
+  <si>
+    <t>meme_sensing</t>
+  </si>
+  <si>
+    <t>focus</t>
+  </si>
+  <si>
+    <t>zone</t>
+  </si>
+  <si>
+    <t>flow</t>
+  </si>
+  <si>
+    <t>focus状態</t>
+  </si>
+  <si>
+    <t>zone状態</t>
+  </si>
+  <si>
+    <t>flow状態</t>
+  </si>
+  <si>
+    <t>1分で18秒以上同じWindowsを見ていない</t>
+  </si>
+  <si>
+    <t>keystrokeがmouseのみ</t>
+  </si>
+  <si>
+    <t>keystrokeがゼロ</t>
+  </si>
+  <si>
+    <t>NO_WORKING</t>
+  </si>
+  <si>
+    <t>仕事をしていない</t>
+  </si>
+  <si>
+    <t>NO_OPERATINGが12分以上</t>
+  </si>
+  <si>
+    <t>microsoft edge</t>
+  </si>
+  <si>
+    <t>chrome</t>
+  </si>
+  <si>
+    <t>firefox</t>
+  </si>
+  <si>
+    <t>explorer</t>
+  </si>
+  <si>
+    <t>searchui</t>
+  </si>
+  <si>
+    <t>powershell</t>
+  </si>
+  <si>
+    <t>powershell_ise</t>
+  </si>
+  <si>
+    <t>outlook</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>calendar</t>
+  </si>
+  <si>
+    <t>slack</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>excel</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>powerpoint</t>
+  </si>
+  <si>
+    <t>astah</t>
+  </si>
+  <si>
+    <t>sakura</t>
+  </si>
+  <si>
+    <t>notepad</t>
+  </si>
+  <si>
+    <t>workflowy</t>
+  </si>
+  <si>
+    <t>typora</t>
+  </si>
+  <si>
+    <t>journey</t>
+  </si>
+  <si>
+    <t>todoist</t>
+  </si>
+  <si>
+    <t>pomodoneapp</t>
+  </si>
+  <si>
+    <t>photos</t>
+  </si>
+  <si>
+    <t>sourcetree</t>
+  </si>
+  <si>
+    <t>browser</t>
+  </si>
+  <si>
+    <t>filer</t>
+  </si>
+  <si>
+    <t>terminal</t>
+  </si>
+  <si>
+    <t>mailer</t>
+  </si>
+  <si>
+    <t>scheduler</t>
+  </si>
+  <si>
+    <t>chat</t>
+  </si>
+  <si>
+    <t>sns</t>
+  </si>
+  <si>
+    <t>design</t>
+  </si>
+  <si>
+    <t>editor</t>
+  </si>
+  <si>
+    <t>logging</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>develop</t>
+  </si>
+  <si>
+    <t>app category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,8 +580,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -286,33 +657,20 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top style="hair">
         <color auto="1"/>
       </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -344,11 +702,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1191,7 +1561,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>19/07/25</a:t>
+            <a:t>19/09/05</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1557,7 +1927,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{183995C5-7F90-425A-B1B1-F0C67D238F0E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A340C52-629B-4988-9283-B07F62E0F525}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +2008,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C464839-1B55-4B45-964D-8DACC3F9BB26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80746957-DA00-4A82-837F-27AFDC584896}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +2086,7 @@
         <xdr:cNvPr id="4" name="Rectangle 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20FE947C-7E8C-492D-809D-EC55B7841A38}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6540A8-E4BF-4761-9256-613416C18863}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1797,7 +2167,7 @@
         <xdr:cNvPr id="5" name="Rectangle 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EFDE074-9A04-4AF3-947F-F83CDD758F45}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA430493-F9B4-43E9-87FE-B13708F6F442}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +2245,7 @@
         <xdr:cNvPr id="6" name="Rectangle 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AE0070B-1754-44B0-AABA-8789F164E5CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A04A9A69-B9CD-4E11-B075-631D38A0CDCF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,7 +2326,7 @@
         <xdr:cNvPr id="7" name="Rectangle 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80FEB137-F517-460F-A56C-549770D636F6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EB97CB1-DCA8-40C1-AE33-7C0A30D955B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2017,23 +2387,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t> Design (</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>IF</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>)</a:t>
+            <a:t> Design (internal)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2058,7 +2412,7 @@
         <xdr:cNvPr id="8" name="Rectangle 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B63A27-CD7E-4CB1-9A41-34A58AC337C0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30879CE3-530A-47A6-A7A2-D7C8FB8CA4DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2152,7 +2506,7 @@
         <xdr:cNvPr id="9" name="Rectangle 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6FE2007F-81AC-462C-8227-EB7331E80BCD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AA17FF2-92BF-4A43-9432-5B637E093427}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2230,7 +2584,7 @@
         <xdr:cNvPr id="10" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{478A5028-2EEA-4258-AC20-FDE5C95D8632}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55AE295-9F8D-4BD1-8D14-4F106AC0CC11}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2324,7 +2678,7 @@
         <xdr:cNvPr id="11" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AF6310E-447E-4BC5-BE9D-9978CA7A0B26}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6809F16-064C-4940-8DE3-BF9D8CC26F40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2377,7 +2731,7 @@
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>19/07/25</a:t>
+            <a:t>19/09/05</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2402,7 +2756,7 @@
         <xdr:cNvPr id="12" name="Rectangle 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28AB0114-420D-46E8-B48E-574FCF777E64}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC10ABCE-DCD4-41A7-A6AD-2E28B7972E6B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2488,7 +2842,7 @@
         <xdr:cNvPr id="13" name="Rectangle 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98B9C662-1197-45A9-A550-49E49A6D8EEA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A53DAF-6C80-4ECD-A537-18369BBADF9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2566,7 +2920,7 @@
         <xdr:cNvPr id="14" name="Rectangle 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C781457-F10F-4A4B-9776-4443E8274AB3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3100D42-5CFC-4140-948C-9E00BF58BD3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2660,7 +3014,1177 @@
         <xdr:cNvPr id="15" name="Rectangle 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D9A2C9B-7041-4393-B626-327497BBCC87}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB808282-9E7C-4DDD-923D-7B4CFD9A92C2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515224" y="266700"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>728549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B030DD88-2877-47D2-A9C7-AA4FE5112B68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104774" y="38100"/>
+          <a:ext cx="928575" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Project Code</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>104774</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>728549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8F89A9F-01B6-4D96-B3E4-89BFCE26665C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="104774" y="266700"/>
+          <a:ext cx="928575" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>SSE19</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>418574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FDAC6EC-7B95-429A-AF9C-7965B1BC73B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="38100"/>
+          <a:ext cx="1342500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Document Code</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676274</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>418574</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05427957-BCD6-4583-9BC3-B215AFE7A0F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="981074" y="266700"/>
+          <a:ext cx="1342500" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CD</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02DFA046-A45B-4AB4-BC97-35877FAA2AC7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324099" y="38100"/>
+          <a:ext cx="2179050" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Document Name</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>83549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FDAAC61-0E69-4AE4-B6A4-D8F5F45011CD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2324099" y="266700"/>
+          <a:ext cx="2179050" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Code</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Design (internal)</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1074674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C019AB-5515-41DE-BC51-F26A6922FF6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486274" y="38100"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Created</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> By</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1074674</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA0CBC0B-56B7-4812-9634-00897773D213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4486274" y="266700"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sakai Mitsuru</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076324</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722249</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C38D2B07-DD05-436D-8371-5F16D0A9BFC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495924" y="38100"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Create</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>d Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1076324</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>722249</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2986F55-446A-4A95-B006-826C04C041A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5495924" y="266700"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>19/09/05</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1731899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5A1AF4B-1611-4EF6-A3B3-D6F97DAD20F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505574" y="38100"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Updated By</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>723899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1731899</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DF3A61F-737C-4A85-8719-0A0FF68B9937}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6505574" y="266700"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>-</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1733549</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>779399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rectangle 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1777F65B-E520-4193-A82F-D68A1627F8C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7515224" y="38100"/>
+          <a:ext cx="1008000" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1">
+              <a:lumMod val="75000"/>
+              <a:lumOff val="25000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="overflow" horzOverflow="overflow" wrap="none" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Updated</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1733549</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>779399</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{994A4559-273D-498C-8D5A-8CFB5D4344CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2986,10 +4510,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G45"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3036,7 +4563,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -3050,33 +4577,33 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A39" si="0">ROW()-4</f>
+        <f t="shared" ref="A7:A10" si="0">ROW()-4</f>
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>31</v>
+        <v>68</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -3086,373 +4613,435 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="G8" s="7"/>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
-      <c r="E9" s="4" t="s">
-        <v>34</v>
+      <c r="E9" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="4" t="s">
-        <v>36</v>
+      <c r="E10" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="G10" s="7"/>
     </row>
-    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f t="shared" ref="A11:A35" si="1">ROW()-4</f>
         <v>7</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f>ROW()-4</f>
         <v>10</v>
       </c>
-      <c r="G11" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B12" s="7" t="s">
+      <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f>ROW()-4</f>
         <v>11</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
+      <c r="B15" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="7"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>14</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="8">
-        <f t="shared" si="0"/>
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="B20" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="G19" s="7"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="6">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F20" s="7" t="s">
+      <c r="B22" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="8">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B21" s="9" t="s">
+      <c r="B23" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="6">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B22" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="E22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="B24" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="G24" s="13"/>
+    </row>
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" s="7"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="8">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
       <c r="B25" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="7"/>
+      <c r="E25" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7"/>
+        <v>48</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G26" s="13"/>
+    </row>
+    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
+      <c r="E28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>85</v>
+      </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
+      <c r="E29" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G29" s="7"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="B30" s="7"/>
@@ -3464,7 +5053,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
       <c r="B31" s="7"/>
@@ -3476,7 +5065,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
       <c r="B32" s="7"/>
@@ -3488,7 +5077,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
       <c r="B33" s="7"/>
@@ -3500,7 +5089,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="B34" s="7"/>
@@ -3512,7 +5101,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
       <c r="B35" s="7"/>
@@ -3523,121 +5112,67 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="6"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="6"/>
-      <c r="B41" s="6"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="6"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="6"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="6"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="6"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10"/>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:G4" xr:uid="{59021625-C2CE-4FC9-910D-D045D7CD2E5F}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="8" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8EB64B-3899-43AA-B41A-7C1334A6C845}">
-  <dimension ref="A1:G42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42D2FCB0-EF69-4C2E-A32A-580C6CF78F2E}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3684,10 +5219,14 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>94</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>90</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -3697,23 +5236,43 @@
         <f>ROW()-4</f>
         <v>2</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>80</v>
+      </c>
       <c r="G6" s="7"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <f t="shared" ref="A7:A36" si="0">ROW()-4</f>
+        <f t="shared" ref="A7:A11" si="0">ROW()-4</f>
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>81</v>
+      </c>
       <c r="G7" s="7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -3721,11 +5280,21 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>82</v>
+      </c>
       <c r="G8" s="7"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3733,21 +5302,43 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>83</v>
+      </c>
       <c r="G9" s="7"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>105</v>
+      </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3755,302 +5346,502 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F11" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
-        <f t="shared" si="0"/>
+      <c r="A12" s="8">
+        <f t="shared" ref="A12:A28" si="1">ROW()-4</f>
         <v>8</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
+      <c r="B12" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="B13" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="G13" s="7"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
+      <c r="B14" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="8">
-        <f t="shared" si="0"/>
+      <c r="A15" s="6">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="7"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
+      <c r="B16" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
-        <f t="shared" si="0"/>
+      <c r="A17" s="2">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
+      <c r="B17" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>8</v>
+      </c>
       <c r="G18" s="7"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
+      <c r="E19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="G20" s="7"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="6">
-        <f t="shared" si="0"/>
+      <c r="A21" s="2">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="B21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
+      <c r="E22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>101</v>
+      </c>
       <c r="G22" s="7"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
+      <c r="E23" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="G23" s="7"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>103</v>
+      </c>
       <c r="G24" s="7"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="6">
-        <f t="shared" si="0"/>
+      <c r="A25" s="2">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
+      <c r="B25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>117</v>
+      </c>
       <c r="G26" s="7"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>118</v>
+      </c>
       <c r="G27" s="7"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="G28" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="6">
-        <f t="shared" si="0"/>
+      <c r="A29" s="8">
+        <f t="shared" ref="A29:A34" si="2">ROW()-4</f>
         <v>25</v>
       </c>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+      <c r="B29" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>26</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="G30" s="7"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
+      <c r="E34" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="6">
-        <f t="shared" si="0"/>
+      <c r="A35" s="2">
+        <f>ROW()-4</f>
         <v>31</v>
       </c>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="6">
-        <f t="shared" si="0"/>
+        <f>ROW()-4</f>
         <v>32</v>
       </c>
       <c r="B36" s="7"/>
@@ -4061,31 +5852,40 @@
       <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="6">
+        <f>ROW()-4</f>
+        <v>33</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="6">
+        <f>ROW()-4</f>
+        <v>34</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
+      <c r="A39" s="6">
+        <f>ROW()-4</f>
+        <v>35</v>
+      </c>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="6"/>
@@ -4106,21 +5906,629 @@
       <c r="G41" s="6"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:G4" xr:uid="{59021625-C2CE-4FC9-910D-D045D7CD2E5F}"/>
-  <mergeCells count="1">
-    <mergeCell ref="B15:C15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="8" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FBE61FD-CFEC-488C-AF86-5241F93B6A71}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="4" style="4" customWidth="1"/>
+    <col min="2" max="2" width="21" style="4" customWidth="1"/>
+    <col min="3" max="3" width="17.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="25.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="21.125" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <f>ROW()-4</f>
+        <v>1</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <f>ROW()-4</f>
+        <v>2</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f t="shared" ref="A7:A11" si="0">ROW()-4</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="6">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F11" s="12"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <f>ROW()-4</f>
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <f>ROW()-4</f>
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <f>ROW()-4</f>
+        <v>10</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f t="shared" ref="A15:A31" si="1">ROW()-4</f>
+        <v>11</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="6">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="6">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="6">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="6">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A4:G4" xr:uid="{59021625-C2CE-4FC9-910D-D045D7CD2E5F}"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="8" scale="98" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/_project_docs/SSE19_RD_CD.xlsx
+++ b/_project_docs/SSE19_RD_CD.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FE9646-7B94-4A13-B6C6-18E461D97761}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0784B39-E7E2-4BE4-9C86-38413279BAF8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="1350" windowWidth="20820" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28005" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Code Design" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="168">
   <si>
     <t>No</t>
   </si>
@@ -216,9 +216,6 @@
     <t>就寝</t>
   </si>
   <si>
-    <t>仕事</t>
-  </si>
-  <si>
     <t>歩行</t>
   </si>
   <si>
@@ -535,6 +532,18 @@
   </si>
   <si>
     <t>app category</t>
+  </si>
+  <si>
+    <t>仕事(office)</t>
+  </si>
+  <si>
+    <t>仕事(home)</t>
+  </si>
+  <si>
+    <t>会議</t>
+  </si>
+  <si>
+    <t>meeting</t>
   </si>
 </sst>
 </file>
@@ -4513,10 +4522,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4563,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -4577,15 +4586,15 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -4595,15 +4604,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -4613,15 +4622,15 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -4631,15 +4640,15 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>73</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -4649,25 +4658,25 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G10" s="7"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
-        <f t="shared" ref="A11:A35" si="1">ROW()-4</f>
+        <f t="shared" ref="A11:A38" si="1">ROW()-4</f>
         <v>7</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -4681,7 +4690,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>16</v>
@@ -4701,7 +4710,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>16</v>
@@ -4738,14 +4747,16 @@
         <v>48</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D15" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>76</v>
+      </c>
       <c r="E15" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>58</v>
+        <v>164</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -4758,18 +4769,20 @@
         <v>48</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7" t="s">
-        <v>21</v>
+        <v>84</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>57</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
@@ -4778,38 +4791,42 @@
         <v>48</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7" t="s">
-        <v>7</v>
+        <v>84</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="G17" s="7"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="6">
-        <f t="shared" si="1"/>
+        <f>ROW()-4</f>
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D18" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E18" s="7" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>109</v>
+        <v>165</v>
       </c>
       <c r="G18" s="7"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
@@ -4818,18 +4835,20 @@
         <v>48</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D19" s="7"/>
+        <v>84</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>75</v>
+      </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>60</v>
+        <v>109</v>
       </c>
       <c r="G19" s="7"/>
     </row>
-    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
@@ -4838,20 +4857,20 @@
         <v>48</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="4" t="s">
-        <v>22</v>
+        <v>84</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="6">
         <f t="shared" si="1"/>
         <v>17</v>
@@ -4860,18 +4879,18 @@
         <v>48</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D21" s="7"/>
-      <c r="E21" s="4" t="s">
-        <v>49</v>
+      <c r="E21" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="G21" s="7"/>
     </row>
-    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
@@ -4880,18 +4899,18 @@
         <v>48</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D22" s="7"/>
-      <c r="E22" s="4" t="s">
-        <v>56</v>
+      <c r="E22" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G22" s="7"/>
     </row>
-    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="6">
         <f t="shared" si="1"/>
         <v>19</v>
@@ -4900,20 +4919,18 @@
         <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D23" s="7"/>
-      <c r="E23" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G23" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="6">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -4922,16 +4939,18 @@
         <v>48</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D24" s="7"/>
-      <c r="E24" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="G24" s="13"/>
+      <c r="E24" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="6">
@@ -4942,20 +4961,18 @@
         <v>48</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="7"/>
-      <c r="E25" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="G25" s="13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="6">
         <f t="shared" si="1"/>
         <v>22</v>
@@ -4964,18 +4981,20 @@
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="15" t="s">
-        <v>24</v>
+      <c r="E26" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="6">
         <f t="shared" si="1"/>
         <v>23</v>
@@ -4984,20 +5003,18 @@
         <v>48</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="15" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G27" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="G27" s="13"/>
+    </row>
+    <row r="28" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="6">
         <f t="shared" si="1"/>
         <v>24</v>
@@ -5006,17 +5023,17 @@
         <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="16" t="s">
-        <v>26</v>
+      <c r="E28" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -5028,51 +5045,79 @@
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D29" s="7"/>
-      <c r="E29" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="7"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" s="13"/>
+    </row>
+    <row r="30" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="6">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
+      <c r="E31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>84</v>
+      </c>
       <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
+      <c r="E32" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
       <c r="G32" s="7"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5112,31 +5157,40 @@
       <c r="G35" s="7"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="6"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
+      <c r="A36" s="6">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="6"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
+      <c r="A37" s="6">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
+      <c r="A38" s="6">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="6"/>
@@ -5148,13 +5202,40 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="10"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="A4:G4" xr:uid="{59021625-C2CE-4FC9-910D-D045D7CD2E5F}"/>
@@ -5219,13 +5300,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -5237,19 +5318,19 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G6" s="7"/>
     </row>
@@ -5259,19 +5340,19 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" s="7"/>
     </row>
@@ -5281,19 +5362,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G8" s="7"/>
     </row>
@@ -5303,19 +5384,19 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G9" s="7"/>
     </row>
@@ -5325,19 +5406,19 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="G10" s="7"/>
     </row>
@@ -5347,19 +5428,19 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="G11" s="7"/>
     </row>
@@ -5369,10 +5450,10 @@
         <v>8</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
@@ -5385,10 +5466,10 @@
         <v>9</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>41</v>
@@ -5407,10 +5488,10 @@
         <v>10</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="12" t="s">
         <v>41</v>
@@ -5429,10 +5510,10 @@
         <v>11</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D15" s="12" t="s">
         <v>42</v>
@@ -5441,7 +5522,7 @@
         <v>45</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G15" s="7"/>
     </row>
@@ -5451,10 +5532,10 @@
         <v>12</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D16" s="12" t="s">
         <v>42</v>
@@ -5466,7 +5547,7 @@
         <v>20</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -5475,10 +5556,10 @@
         <v>13</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -5491,10 +5572,10 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7" t="s">
@@ -5511,20 +5592,20 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -5533,10 +5614,10 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7" t="s">
@@ -5553,7 +5634,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>21</v>
@@ -5569,17 +5650,17 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C22" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7"/>
     </row>
@@ -5589,17 +5670,17 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7"/>
     </row>
@@ -5609,17 +5690,17 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C24" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G24" s="7"/>
     </row>
@@ -5629,10 +5710,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
@@ -5645,19 +5726,19 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="E26" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G26" s="7"/>
     </row>
@@ -5667,19 +5748,19 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="E27" s="7" t="s">
-        <v>115</v>
-      </c>
       <c r="F27" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G27" s="7"/>
     </row>
@@ -5689,19 +5770,19 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="C28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>114</v>
-      </c>
       <c r="E28" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G28" s="7"/>
     </row>
@@ -5711,7 +5792,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -5725,7 +5806,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>15</v>
@@ -5745,7 +5826,7 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C31" s="7" t="s">
         <v>15</v>
@@ -5758,7 +5839,7 @@
         <v>37</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5767,7 +5848,7 @@
         <v>28</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>15</v>
@@ -5780,7 +5861,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -5789,7 +5870,7 @@
         <v>29</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>15</v>
@@ -5802,7 +5883,7 @@
         <v>39</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="30" x14ac:dyDescent="0.25">
@@ -5811,20 +5892,20 @@
         <v>30</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="F34" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="G34" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5957,7 +6038,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6004,7 +6085,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -6018,14 +6099,14 @@
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6036,14 +6117,14 @@
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6054,14 +6135,14 @@
         <v>4</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6072,14 +6153,14 @@
         <v>5</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6090,14 +6171,14 @@
         <v>6</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -6108,14 +6189,14 @@
         <v>7</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F11" s="12"/>
       <c r="G11" s="7"/>
@@ -6126,14 +6207,14 @@
         <v>8</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6144,14 +6225,14 @@
         <v>9</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D13" s="7"/>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -6162,14 +6243,14 @@
         <v>10</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6180,14 +6261,14 @@
         <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D15" s="6"/>
       <c r="E15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F15" s="6"/>
       <c r="G15" s="6"/>
@@ -6198,14 +6279,14 @@
         <v>12</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F16" s="6"/>
       <c r="G16" s="6"/>
@@ -6216,14 +6297,14 @@
         <v>13</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F17" s="6"/>
       <c r="G17" s="6"/>
@@ -6234,14 +6315,14 @@
         <v>14</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F18" s="6"/>
       <c r="G18" s="6"/>
@@ -6252,14 +6333,14 @@
         <v>15</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -6270,14 +6351,14 @@
         <v>16</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F20" s="6"/>
       <c r="G20" s="6"/>
@@ -6288,14 +6369,14 @@
         <v>17</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" s="6"/>
       <c r="G21" s="6"/>
@@ -6306,14 +6387,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F22" s="6"/>
       <c r="G22" s="6"/>
@@ -6324,14 +6405,14 @@
         <v>19</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -6342,14 +6423,14 @@
         <v>20</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F24" s="6"/>
       <c r="G24" s="6"/>
@@ -6360,14 +6441,14 @@
         <v>21</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="F25" s="6"/>
       <c r="G25" s="6"/>
@@ -6378,14 +6459,14 @@
         <v>22</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
@@ -6396,14 +6477,14 @@
         <v>23</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -6414,14 +6495,14 @@
         <v>24</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -6432,14 +6513,14 @@
         <v>25</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
@@ -6450,14 +6531,14 @@
         <v>26</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -6468,14 +6549,14 @@
         <v>27</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D31" s="6"/>
       <c r="E31" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
